--- a/testcases_cache_state.xlsx
+++ b/testcases_cache_state.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Direct mapped (2)" sheetId="3" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="2-way (2)" sheetId="2" r:id="rId3"/>
     <sheet name="4-way (1)" sheetId="4" r:id="rId4"/>
     <sheet name="Fully Associative (1)" sheetId="5" r:id="rId5"/>
+    <sheet name="Fully Associative (2)" sheetId="6" r:id="rId6"/>
+    <sheet name="4-way (2)" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="116">
   <si>
     <t xml:space="preserve">drity </t>
   </si>
@@ -157,81 +159,27 @@
     <t>b34e</t>
   </si>
   <si>
-    <t>write-req 0 1234AA3F</t>
-  </si>
-  <si>
     <t>1234AA3F</t>
   </si>
   <si>
-    <t>write-req 12 AF321152</t>
-  </si>
-  <si>
     <t>write-ack 0 miss 3</t>
   </si>
   <si>
     <t>AF321152</t>
   </si>
   <si>
-    <t>write-req 16 11534242</t>
-  </si>
-  <si>
     <t xml:space="preserve">write-ack 0 miss 3 </t>
   </si>
   <si>
-    <t>write-req 36 F2421ADD</t>
-  </si>
-  <si>
-    <t>read-req 12</t>
-  </si>
-  <si>
-    <t>read-ack 0 hit AF321152</t>
-  </si>
-  <si>
     <t>read-req 4</t>
   </si>
   <si>
-    <t>read-ack 0 hit 00000000</t>
-  </si>
-  <si>
     <t>F2421ADD</t>
   </si>
   <si>
-    <t>write-req 40 AFF33322</t>
-  </si>
-  <si>
     <t>AFF33322</t>
   </si>
   <si>
-    <t>write-ack 0 miss 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read-req 28 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">read-ack 0 miss 7 00000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">read-req 0 </t>
-  </si>
-  <si>
-    <t>read-ack 0 hit 1 1234AA3F</t>
-  </si>
-  <si>
-    <t>read-req 40</t>
-  </si>
-  <si>
-    <t>read-ack 0 hit 1 AFF33322</t>
-  </si>
-  <si>
-    <t>read-req 36</t>
-  </si>
-  <si>
-    <t>read-ack 0 hit 1 F2421ADD</t>
-  </si>
-  <si>
-    <t>write-req 20 AFF32231</t>
-  </si>
-  <si>
     <t>AFF32231</t>
   </si>
   <si>
@@ -293,6 +241,138 @@
   </si>
   <si>
     <t>read-ack hit 1 1102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write-ack 0 hit 1 </t>
+  </si>
+  <si>
+    <t>read-ack 0 miss 7 0000</t>
+  </si>
+  <si>
+    <t>read-ack 0 miss 7 5244</t>
+  </si>
+  <si>
+    <t>write-ack 0 hit 1</t>
+  </si>
+  <si>
+    <t>A423</t>
+  </si>
+  <si>
+    <t>AF13</t>
+  </si>
+  <si>
+    <t>read-ack 0 hit 1 A423</t>
+  </si>
+  <si>
+    <t>read-req 0</t>
+  </si>
+  <si>
+    <t>read-ack 0 miss 3 5244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flush-req </t>
+  </si>
+  <si>
+    <t>flush-ack 4</t>
+  </si>
+  <si>
+    <t>read-ack 0 miss 3 0000</t>
+  </si>
+  <si>
+    <t>write-req 4 5244</t>
+  </si>
+  <si>
+    <t>write-req 3 2214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read-req 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">read-req 4 </t>
+  </si>
+  <si>
+    <t>write-req 26 A423</t>
+  </si>
+  <si>
+    <t>write-req 16 AF13</t>
+  </si>
+  <si>
+    <t>read-req 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write-req 24 1145 </t>
+  </si>
+  <si>
+    <t>read-ack 0 miss 7 1234</t>
+  </si>
+  <si>
+    <t>write-ack 0 miss 1</t>
+  </si>
+  <si>
+    <t>write-ack 1 miss 1</t>
+  </si>
+  <si>
+    <t>1434293029AABF542910</t>
+  </si>
+  <si>
+    <t>AABBCCDDEEFF11223344</t>
+  </si>
+  <si>
+    <t>FF33429503001423FFBC</t>
+  </si>
+  <si>
+    <t>AABBCCEEDDFF11553322</t>
+  </si>
+  <si>
+    <t>FFDDEEDDAA1123234324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write-ack 1 miss 1 </t>
+  </si>
+  <si>
+    <t>FFAABBEE112323446533</t>
+  </si>
+  <si>
+    <t>13452A77849043829304</t>
+  </si>
+  <si>
+    <t>1212343453121B343453</t>
+  </si>
+  <si>
+    <t>read-ack 0 hit 1 13452A77849043829304</t>
+  </si>
+  <si>
+    <t>flush-ack 24</t>
+  </si>
+  <si>
+    <t>flush-ack 0</t>
+  </si>
+  <si>
+    <t>FF11EE22DD33CC44BB55</t>
+  </si>
+  <si>
+    <t>read-ack 1 miss 3 00000000000000000000</t>
+  </si>
+  <si>
+    <t>read-ack 0 hit 1 FFDDEEDDAA1123234324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read-ack 0 hit 1 1212343453121B343453 </t>
+  </si>
+  <si>
+    <t>1144332222553344FFAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read-ack 0 miss 3 FF33429503001423FFBC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">read-ack 1 hit 1 FFAABBEE112323446533 </t>
+  </si>
+  <si>
+    <t>read-ack 1 miss 6 AABBCCEEDDFF11553322</t>
+  </si>
+  <si>
+    <t>flush-ack 3</t>
   </si>
 </sst>
 </file>
@@ -481,8 +561,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -602,7 +706,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="89">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -635,6 +739,18 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -667,6 +783,18 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1782,7 +1910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -1906,7 +2034,7 @@
         <v>3323</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2080,90 +2208,90 @@
     </row>
     <row r="16" spans="1:20">
       <c r="E16" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2574,7 +2702,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection sqref="A1:U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2688,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="22">
         <v>0</v>
@@ -2706,7 +2834,7 @@
         <v>11534242</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="L3" s="20">
         <v>1</v>
@@ -2718,7 +2846,7 @@
         <v>5</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="P3" s="22">
         <v>0</v>
@@ -2736,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -2838,7 +2966,7 @@
     <row r="13" spans="1:21">
       <c r="S13" s="12"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2849,7 +2977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2859,28 +2987,16 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="F20" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:3">
       <c r="B21" s="15">
         <v>4</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="F21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2890,28 +3006,16 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="F22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+    </row>
+    <row r="23" spans="1:3">
       <c r="B23" s="2">
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2921,28 +3025,16 @@
       <c r="C24">
         <v>11534242</v>
       </c>
-      <c r="F24" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:3">
       <c r="B25" s="3">
         <v>20</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="F25" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2952,28 +3044,16 @@
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="F26" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:3">
       <c r="B27" s="3">
         <v>28</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="F27" t="s">
-        <v>60</v>
-      </c>
-      <c r="I27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2983,28 +3063,16 @@
       <c r="C28">
         <v>0</v>
       </c>
-      <c r="F28" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+    </row>
+    <row r="29" spans="1:3">
       <c r="B29" s="17">
         <v>36</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="F29" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -3014,25 +3082,13 @@
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="F30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+    </row>
+    <row r="31" spans="1:3">
       <c r="B31" s="17">
         <v>44</v>
       </c>
       <c r="C31">
         <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3050,4 +3106,1043 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="B1" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="12"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="20">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21">
+        <v>5244</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="21">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21">
+        <v>4</v>
+      </c>
+      <c r="J3" s="21">
+        <v>0</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="12"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="25"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="12"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="S13" s="12"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" s="14">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1234</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="15">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>2214</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>5244</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="2">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="3">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="3">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" s="16">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="17">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" s="16">
+        <v>40</v>
+      </c>
+      <c r="C30">
+        <v>1145</v>
+      </c>
+      <c r="D30">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="17">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="B1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="L1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>21</v>
+      </c>
+      <c r="T4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="S13" s="12"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="12">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="12">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="12">
+        <v>40</v>
+      </c>
+      <c r="J24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" s="12">
+        <v>50</v>
+      </c>
+      <c r="J25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" s="12">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="J26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" s="12">
+        <v>70</v>
+      </c>
+      <c r="J27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28" s="13">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="J28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29" s="13">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30" s="13">
+        <v>100</v>
+      </c>
+      <c r="J30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31" s="13">
+        <v>110</v>
+      </c>
+      <c r="J31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32" s="13">
+        <v>120</v>
+      </c>
+      <c r="J32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>13</v>
+      </c>
+      <c r="B33" s="13">
+        <v>130</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="J33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="B34" s="13">
+        <v>140</v>
+      </c>
+      <c r="J34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35" s="13">
+        <v>150</v>
+      </c>
+      <c r="J35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36" s="13">
+        <v>160</v>
+      </c>
+      <c r="J36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>17</v>
+      </c>
+      <c r="B37" s="13">
+        <v>170</v>
+      </c>
+      <c r="C37" t="s">
+        <v>107</v>
+      </c>
+      <c r="J37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38" s="13">
+        <v>180</v>
+      </c>
+      <c r="J38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39" s="13">
+        <v>190</v>
+      </c>
+      <c r="J39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40" s="13">
+        <v>200</v>
+      </c>
+      <c r="J40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>21</v>
+      </c>
+      <c r="B41" s="13">
+        <v>210</v>
+      </c>
+      <c r="C41" t="s">
+        <v>101</v>
+      </c>
+      <c r="J41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>22</v>
+      </c>
+      <c r="B42" s="13">
+        <v>220</v>
+      </c>
+      <c r="J42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>23</v>
+      </c>
+      <c r="B43" s="13">
+        <v>230</v>
+      </c>
+      <c r="J43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>24</v>
+      </c>
+      <c r="B44" s="13">
+        <v>240</v>
+      </c>
+      <c r="C44" t="s">
+        <v>102</v>
+      </c>
+      <c r="J44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>25</v>
+      </c>
+      <c r="B45" s="13">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="Q1:T1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>